--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0/metrics/Trial_130__Reeval_Taguchi_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0/metrics/Trial_130__Reeval_Taguchi_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -5359,7 +5359,7 @@
                   <c:v>359.2714538574219</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>353.947265625</c:v>
+                  <c:v>353.9472961425781</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>362.9761657714844</c:v>
@@ -5392,7 +5392,7 @@
                   <c:v>358.3648071289062</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>353.6109008789062</c:v>
+                  <c:v>353.6109313964844</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>348.7010192871094</c:v>
@@ -5431,7 +5431,7 @@
                   <c:v>317.9501342773438</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>343.6866760253906</c:v>
+                  <c:v>343.6867065429688</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>356.0681457519531</c:v>
@@ -5455,10 +5455,10 @@
                   <c:v>362.173095703125</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>336.0212707519531</c:v>
+                  <c:v>336.021240234375</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>358.5111999511719</c:v>
+                  <c:v>358.5111694335938</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>360.7337951660156</c:v>
@@ -5521,7 +5521,7 @@
                   <c:v>355.7611389160156</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>367.2064514160156</c:v>
+                  <c:v>367.2064208984375</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>351.2825317382812</c:v>
@@ -5533,7 +5533,7 @@
                   <c:v>363.4993286132812</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>346.1188354492188</c:v>
+                  <c:v>346.1188049316406</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>341.45703125</c:v>
@@ -5572,7 +5572,7 @@
                   <c:v>346.2033996582031</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>316.2606811523438</c:v>
+                  <c:v>316.2606506347656</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>369.271240234375</c:v>
@@ -5590,10 +5590,10 @@
                   <c:v>343.2703552246094</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>362.0882873535156</c:v>
+                  <c:v>362.0882568359375</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>357.4341430664062</c:v>
+                  <c:v>357.4341735839844</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>330.3691101074219</c:v>
@@ -5608,13 +5608,13 @@
                   <c:v>353.8617553710938</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>346.844970703125</c:v>
+                  <c:v>346.8450012207031</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>353.9191284179688</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>360.8663940429688</c:v>
+                  <c:v>360.8664245605469</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>357.8651123046875</c:v>
@@ -5645,7 +5645,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5660,7 +5660,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5689,7 +5689,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5704,7 +5704,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5733,7 +5733,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5748,7 +5748,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6260,13 +6260,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H712"/>
+  <dimension ref="A1:S712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6291,8 +6291,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>355.54</v>
       </c>
@@ -6317,8 +6323,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>355.305</v>
       </c>
@@ -6338,13 +6350,19 @@
         <v>359.2714538574219</v>
       </c>
       <c r="G3">
+        <v>407</v>
+      </c>
+      <c r="H3">
+        <v>407</v>
+      </c>
+      <c r="R3">
         <v>370</v>
       </c>
-      <c r="H3">
+      <c r="S3">
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>361.741</v>
       </c>
@@ -6361,16 +6379,22 @@
         <v>339.681</v>
       </c>
       <c r="F4">
-        <v>353.947265625</v>
+        <v>353.9472961425781</v>
       </c>
       <c r="G4">
+        <v>407</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>370</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>338.792</v>
       </c>
@@ -6390,13 +6414,19 @@
         <v>362.9761657714844</v>
       </c>
       <c r="G5">
+        <v>407</v>
+      </c>
+      <c r="H5">
+        <v>407</v>
+      </c>
+      <c r="R5">
         <v>370</v>
       </c>
-      <c r="H5">
+      <c r="S5">
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>353.734</v>
       </c>
@@ -6416,13 +6446,19 @@
         <v>358.333251953125</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>407</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>370</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>363.503</v>
       </c>
@@ -6442,13 +6478,19 @@
         <v>346.0730285644531</v>
       </c>
       <c r="G7">
+        <v>407</v>
+      </c>
+      <c r="H7">
+        <v>407</v>
+      </c>
+      <c r="R7">
         <v>370</v>
       </c>
-      <c r="H7">
+      <c r="S7">
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>360.226</v>
       </c>
@@ -6468,7 +6510,7 @@
         <v>344.4892578125</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>359.146</v>
       </c>
@@ -6488,7 +6530,7 @@
         <v>357.1576843261719</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>358.977</v>
       </c>
@@ -6508,7 +6550,7 @@
         <v>350.3034362792969</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>330.382</v>
       </c>
@@ -6528,7 +6570,7 @@
         <v>355.1000366210938</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>356.115</v>
       </c>
@@ -6548,7 +6590,7 @@
         <v>364.7076416015625</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>358.917</v>
       </c>
@@ -6568,7 +6610,7 @@
         <v>359.8444213867188</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>340.516</v>
       </c>
@@ -6588,7 +6630,7 @@
         <v>358.3648071289062</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>355.69</v>
       </c>
@@ -6605,10 +6647,10 @@
         <v>363.09</v>
       </c>
       <c r="F15">
-        <v>353.6109008789062</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>353.6109313964844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>355.401</v>
       </c>
@@ -6865,7 +6907,7 @@
         <v>362.9</v>
       </c>
       <c r="F28">
-        <v>343.6866760253906</v>
+        <v>343.6867065429688</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7025,7 +7067,7 @@
         <v>338.651</v>
       </c>
       <c r="F36">
-        <v>336.0212707519531</v>
+        <v>336.021240234375</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7045,7 +7087,7 @@
         <v>357.202</v>
       </c>
       <c r="F37">
-        <v>358.5111999511719</v>
+        <v>358.5111694335938</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7465,7 +7507,7 @@
         <v>362.607</v>
       </c>
       <c r="F58">
-        <v>367.2064514160156</v>
+        <v>367.2064208984375</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7545,7 +7587,7 @@
         <v>339.161</v>
       </c>
       <c r="F62">
-        <v>346.1188354492188</v>
+        <v>346.1188049316406</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7805,7 +7847,7 @@
         <v>337.869</v>
       </c>
       <c r="F75">
-        <v>316.2606811523438</v>
+        <v>316.2606506347656</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7925,7 +7967,7 @@
         <v>361.698</v>
       </c>
       <c r="F81">
-        <v>362.0882873535156</v>
+        <v>362.0882568359375</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -7945,7 +7987,7 @@
         <v>357.528</v>
       </c>
       <c r="F82">
-        <v>357.4341430664062</v>
+        <v>357.4341735839844</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8045,7 +8087,7 @@
         <v>338.53</v>
       </c>
       <c r="F87">
-        <v>346.844970703125</v>
+        <v>346.8450012207031</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8085,7 +8127,7 @@
         <v>360.619</v>
       </c>
       <c r="F89">
-        <v>360.8663940429688</v>
+        <v>360.8664245605469</v>
       </c>
     </row>
     <row r="90" spans="1:6">
